--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/04.TraBH/TBH220311_DLNgocHoan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/04.TraBH/TBH220311_DLNgocHoan.xlsx
@@ -805,6 +805,108 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,108 +921,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1279,7 +1279,7 @@
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1299,77 +1299,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="50" t="s">
+      <c r="A1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="53" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="53" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="56" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
@@ -1378,58 +1378,58 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
       <c r="M9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
       <c r="L10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="H12" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="69"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
       <c r="H13" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="69"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1526,14 +1526,14 @@
       <c r="E14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="37" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="69"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
       <c r="H15" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="69"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
       <c r="H16" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="69"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
       <c r="H17" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="69"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
       <c r="H18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="69"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
       <c r="H19" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="69"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
       <c r="H20" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="69"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1703,7 +1703,7 @@
       <c r="H21" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="69"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
       <c r="H22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="73"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1747,7 +1747,7 @@
       <c r="H23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="73"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1769,7 +1769,7 @@
       <c r="H24" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="69"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1793,7 +1793,7 @@
       <c r="H25" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="69"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1817,7 +1817,7 @@
       <c r="H26" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="69"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
       <c r="H27" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="69"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1867,7 +1867,7 @@
       <c r="H28" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="69"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
       <c r="H29" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="69"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1901,7 +1901,7 @@
       <c r="B30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="10"/>
@@ -1915,7 +1915,7 @@
       <c r="H30" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="69"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1937,7 +1937,7 @@
       <c r="H31" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="69"/>
+      <c r="I31" s="36"/>
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1961,7 +1961,7 @@
       <c r="H32" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="69"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1985,7 +1985,7 @@
       <c r="H33" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="69"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="20"/>
     </row>
     <row r="34" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2007,7 +2007,7 @@
       <c r="H34" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="69"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2031,7 +2031,7 @@
       <c r="H35" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="69"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="20"/>
     </row>
     <row r="36" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
       <c r="H36" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I36" s="69"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="20"/>
     </row>
     <row r="37" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2077,7 +2077,7 @@
       <c r="H37" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="69"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2101,7 +2101,7 @@
       <c r="H38" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="69"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2125,7 +2125,7 @@
       <c r="H39" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I39" s="69"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2142,14 +2142,14 @@
       <c r="E40" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="68"/>
+      <c r="F40" s="35"/>
       <c r="G40" s="31" t="s">
         <v>41</v>
       </c>
       <c r="H40" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="I40" s="69"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2166,14 +2166,14 @@
       <c r="E41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="68"/>
+      <c r="F41" s="35"/>
       <c r="G41" s="31" t="s">
         <v>41</v>
       </c>
       <c r="H41" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="69"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2190,14 +2190,14 @@
       <c r="E42" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="68"/>
+      <c r="F42" s="35"/>
       <c r="G42" s="31" t="s">
         <v>41</v>
       </c>
       <c r="H42" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="I42" s="69"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="20"/>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2214,14 +2214,14 @@
       <c r="E43" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="68"/>
+      <c r="F43" s="35"/>
       <c r="G43" s="31" t="s">
         <v>41</v>
       </c>
       <c r="H43" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="69"/>
+      <c r="I43" s="36"/>
       <c r="J43" s="20"/>
     </row>
     <row r="44" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
       <c r="H44" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I44" s="73"/>
+      <c r="I44" s="40"/>
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2269,7 +2269,7 @@
       <c r="H45" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="73"/>
+      <c r="I45" s="40"/>
       <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2282,16 +2282,16 @@
       <c r="C46" s="32">
         <v>861881051088624</v>
       </c>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I46" s="69"/>
+      <c r="I46" s="36"/>
       <c r="J46" s="20"/>
     </row>
     <row r="47" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2308,14 +2308,14 @@
       <c r="E47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="68"/>
+      <c r="F47" s="35"/>
       <c r="G47" s="31" t="s">
         <v>52</v>
       </c>
       <c r="H47" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="69"/>
+      <c r="I47" s="36"/>
       <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2332,14 +2332,14 @@
       <c r="E48" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="68"/>
+      <c r="F48" s="35"/>
       <c r="G48" s="31" t="s">
         <v>41</v>
       </c>
       <c r="H48" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="I48" s="69"/>
+      <c r="I48" s="36"/>
       <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2356,14 +2356,14 @@
       <c r="E49" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="68"/>
+      <c r="F49" s="35"/>
       <c r="G49" s="31" t="s">
         <v>53</v>
       </c>
       <c r="H49" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I49" s="69"/>
+      <c r="I49" s="36"/>
       <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2380,12 +2380,12 @@
       <c r="E50" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="68"/>
+      <c r="F50" s="35"/>
       <c r="G50" s="31"/>
       <c r="H50" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="69"/>
+      <c r="I50" s="36"/>
       <c r="J50" s="20"/>
     </row>
     <row r="51" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2395,7 +2395,7 @@
       <c r="B51" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="72" t="s">
+      <c r="C51" s="39" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="10"/>
@@ -2411,7 +2411,7 @@
       <c r="H51" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I51" s="69"/>
+      <c r="I51" s="36"/>
       <c r="J51" s="20"/>
     </row>
     <row r="52" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2421,7 +2421,7 @@
       <c r="B52" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D52" s="10"/>
@@ -2437,7 +2437,7 @@
       <c r="H52" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I52" s="69"/>
+      <c r="I52" s="36"/>
       <c r="J52" s="20"/>
     </row>
     <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2459,26 +2459,26 @@
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="35" t="s">
+      <c r="G54" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
     </row>
     <row r="55" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
       <c r="F55" s="30"/>
-      <c r="G55" s="39" t="s">
+      <c r="G55" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
     </row>
     <row r="56" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
@@ -2523,45 +2523,45 @@
       <c r="I59" s="29"/>
     </row>
     <row r="60" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="38" t="s">
+      <c r="G60" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
     </row>
     <row r="61" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
     </row>
     <row r="102" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G60:I60"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
